--- a/cake_app/templates/excel/card_reprints_template.xlsx
+++ b/cake_app/templates/excel/card_reprints_template.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="AE56"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId4"/>
-    <sheet name="LIST" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="VERSION" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="LIST" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="VERSION" sheetId="3" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>

--- a/cake_app/templates/excel/card_reprints_template.xlsx
+++ b/cake_app/templates/excel/card_reprints_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="AE56"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="B625"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>カードID - 選択肢</t>
   </si>
   <si>
-    <t>8934a00438cc7b41b85f418f348904549f48cce2f9c2bda85676d982319a2875a36c3740bc79c1a7aa712f21e667ff8c91b4e101fbad64aff051a835fd2bcb48</t>
+    <t>d0ccdd75726cc23169aac6d2d14d87e1a5dfc2a624aba346ef9c77079c9e4607b87f088e4ac3f6bbd039a21198776518e81b66ef0adf8f8359e3124389200e59</t>
   </si>
 </sst>
 </file>

--- a/cake_app/templates/excel/card_reprints_template.xlsx
+++ b/cake_app/templates/excel/card_reprints_template.xlsx
@@ -420,8 +420,8 @@
     <col min="1" max="1" width="10" customWidth="true" style="0"/>
     <col min="2" max="2" width="10" customWidth="true" style="0"/>
     <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.38" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
